--- a/medicine/Sexualité et sexologie/Jeu_de_lames/Jeu_de_lames.xlsx
+++ b/medicine/Sexualité et sexologie/Jeu_de_lames/Jeu_de_lames.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jeu de lames est une forme de jeu consensuelle de BDSM impliquant couteaux, dagues et lames en tant que  source de stimulation physique et mentale. Les lames sont typiquement utilisées pour couper des vêtements, griffer la peau, ou retirer la cire après un jeu de cire, ou donner simplement une stimulation sensuelle. Le jeu de lames peut être affilié au jeu de modification corporelle.
 </t>
